--- a/data/media_mentions.xlsx
+++ b/data/media_mentions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nugraha/Sites/vdlf/wp-content/themes/vdlf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1620295-99AF-464E-B432-0BCF05691D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2010BA-6EFD-664A-94FC-9B4A9F0E74A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1817,7 +1817,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
